--- a/dades/1S3.xlsx
+++ b/dades/1S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDE2DE-5AE8-4E59-9B52-6C5DE3312C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC6E2E8-D11D-4881-A754-17B505F1EA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="165">
   <si>
     <t>departure</t>
   </si>
@@ -309,6 +309,228 @@
   </si>
   <si>
     <t>CCS-4</t>
+  </si>
+  <si>
+    <t>R10A.001</t>
+  </si>
+  <si>
+    <t>R10A</t>
+  </si>
+  <si>
+    <t>R10A.002</t>
+  </si>
+  <si>
+    <t>Mataró</t>
+  </si>
+  <si>
+    <t>R10A.003</t>
+  </si>
+  <si>
+    <t>R10A.004</t>
+  </si>
+  <si>
+    <t>R10A.005</t>
+  </si>
+  <si>
+    <t>R10A.006</t>
+  </si>
+  <si>
+    <t>R10A.007</t>
+  </si>
+  <si>
+    <t>R10A.008</t>
+  </si>
+  <si>
+    <t>R10A.009</t>
+  </si>
+  <si>
+    <t>R10A.010</t>
+  </si>
+  <si>
+    <t>R10A.011</t>
+  </si>
+  <si>
+    <t>R10A.012</t>
+  </si>
+  <si>
+    <t>R10A.013</t>
+  </si>
+  <si>
+    <t>R10A.014</t>
+  </si>
+  <si>
+    <t>R10A.015</t>
+  </si>
+  <si>
+    <t>R10A.016</t>
+  </si>
+  <si>
+    <t>R10A.017</t>
+  </si>
+  <si>
+    <t>R10A.018</t>
+  </si>
+  <si>
+    <t>R10A.019</t>
+  </si>
+  <si>
+    <t>R10A.020</t>
+  </si>
+  <si>
+    <t>R10A.021</t>
+  </si>
+  <si>
+    <t>R10A.022</t>
+  </si>
+  <si>
+    <t>R10A.023</t>
+  </si>
+  <si>
+    <t>R10A.024</t>
+  </si>
+  <si>
+    <t>R10A.025</t>
+  </si>
+  <si>
+    <t>R10A.026</t>
+  </si>
+  <si>
+    <t>R10A.027</t>
+  </si>
+  <si>
+    <t>R10A.028</t>
+  </si>
+  <si>
+    <t>R10A.029</t>
+  </si>
+  <si>
+    <t>R10A.030</t>
+  </si>
+  <si>
+    <t>R10A.031</t>
+  </si>
+  <si>
+    <t>R10A.032</t>
+  </si>
+  <si>
+    <t>R10A.033</t>
+  </si>
+  <si>
+    <t>R10A.034</t>
+  </si>
+  <si>
+    <t>R10A.035</t>
+  </si>
+  <si>
+    <t>R10A.036</t>
+  </si>
+  <si>
+    <t>R10A.037</t>
+  </si>
+  <si>
+    <t>R10A.038</t>
+  </si>
+  <si>
+    <t>R10A.039</t>
+  </si>
+  <si>
+    <t>R10A.040</t>
+  </si>
+  <si>
+    <t>R10A.041</t>
+  </si>
+  <si>
+    <t>R10A.042</t>
+  </si>
+  <si>
+    <t>R10A.043</t>
+  </si>
+  <si>
+    <t>R10A.044</t>
+  </si>
+  <si>
+    <t>R10A.045</t>
+  </si>
+  <si>
+    <t>R10A.046</t>
+  </si>
+  <si>
+    <t>R10A.047</t>
+  </si>
+  <si>
+    <t>R10A.048</t>
+  </si>
+  <si>
+    <t>R10A.049</t>
+  </si>
+  <si>
+    <t>R10A.050</t>
+  </si>
+  <si>
+    <t>R10A.051</t>
+  </si>
+  <si>
+    <t>R10A.052</t>
+  </si>
+  <si>
+    <t>R10A.053</t>
+  </si>
+  <si>
+    <t>R10A.054</t>
+  </si>
+  <si>
+    <t>R10A.055</t>
+  </si>
+  <si>
+    <t>R10A.056</t>
+  </si>
+  <si>
+    <t>R10A.057</t>
+  </si>
+  <si>
+    <t>R10A.058</t>
+  </si>
+  <si>
+    <t>R10A.059</t>
+  </si>
+  <si>
+    <t>R10A.060</t>
+  </si>
+  <si>
+    <t>R10A.061</t>
+  </si>
+  <si>
+    <t>R10A.062</t>
+  </si>
+  <si>
+    <t>R10A.063</t>
+  </si>
+  <si>
+    <t>R10A.064</t>
+  </si>
+  <si>
+    <t>R10A.065</t>
+  </si>
+  <si>
+    <t>R10A.066</t>
+  </si>
+  <si>
+    <t>R10A.067</t>
+  </si>
+  <si>
+    <t>R10A.068</t>
+  </si>
+  <si>
+    <t>R10A.069</t>
+  </si>
+  <si>
+    <t>R10A.070</t>
+  </si>
+  <si>
+    <t>R10A.071</t>
+  </si>
+  <si>
+    <t>R10A.072</t>
   </si>
 </sst>
 </file>
@@ -643,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E805"/>
+  <dimension ref="A1:E1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A410" sqref="A410"/>
+    <sheetView tabSelected="1" topLeftCell="A875" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C896" sqref="C896:C898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14947,6 +15169,3882 @@
         <v>10</v>
       </c>
     </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>5</v>
+      </c>
+      <c r="B806" s="1">
+        <v>0.23597222222222222</v>
+      </c>
+      <c r="C806" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D806" t="s">
+        <v>92</v>
+      </c>
+      <c r="E806" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>89</v>
+      </c>
+      <c r="B807" s="1">
+        <v>0.23737268518518517</v>
+      </c>
+      <c r="C807" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D807" t="s">
+        <v>92</v>
+      </c>
+      <c r="E807" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>88</v>
+      </c>
+      <c r="B808" s="1">
+        <v>0.24181712962962965</v>
+      </c>
+      <c r="C808" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D808" t="s">
+        <v>92</v>
+      </c>
+      <c r="E808" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>88</v>
+      </c>
+      <c r="B809" s="1">
+        <v>0.25369212962962961</v>
+      </c>
+      <c r="C809" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D809" t="s">
+        <v>92</v>
+      </c>
+      <c r="E809" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>89</v>
+      </c>
+      <c r="B810" s="1">
+        <v>0.25855324074074076</v>
+      </c>
+      <c r="C810" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D810" t="s">
+        <v>92</v>
+      </c>
+      <c r="E810" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>5</v>
+      </c>
+      <c r="B811" s="1">
+        <v>0.25958333333333333</v>
+      </c>
+      <c r="C811" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D811" t="s">
+        <v>92</v>
+      </c>
+      <c r="E811" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>5</v>
+      </c>
+      <c r="B812" s="1">
+        <f>B806+(2/24)</f>
+        <v>0.31930555555555556</v>
+      </c>
+      <c r="C812" t="s">
+        <v>95</v>
+      </c>
+      <c r="D812" t="s">
+        <v>92</v>
+      </c>
+      <c r="E812" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>89</v>
+      </c>
+      <c r="B813" s="1">
+        <f t="shared" ref="B813:B859" si="13">B807+(2/24)</f>
+        <v>0.32070601851851849</v>
+      </c>
+      <c r="C813" t="s">
+        <v>95</v>
+      </c>
+      <c r="D813" t="s">
+        <v>92</v>
+      </c>
+      <c r="E813" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>88</v>
+      </c>
+      <c r="B814" s="1">
+        <f t="shared" si="13"/>
+        <v>0.32515046296296296</v>
+      </c>
+      <c r="C814" t="s">
+        <v>95</v>
+      </c>
+      <c r="D814" t="s">
+        <v>92</v>
+      </c>
+      <c r="E814" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>88</v>
+      </c>
+      <c r="B815" s="1">
+        <f t="shared" si="13"/>
+        <v>0.33702546296296293</v>
+      </c>
+      <c r="C815" t="s">
+        <v>96</v>
+      </c>
+      <c r="D815" t="s">
+        <v>92</v>
+      </c>
+      <c r="E815" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>89</v>
+      </c>
+      <c r="B816" s="1">
+        <f t="shared" si="13"/>
+        <v>0.34188657407407408</v>
+      </c>
+      <c r="C816" t="s">
+        <v>96</v>
+      </c>
+      <c r="D816" t="s">
+        <v>92</v>
+      </c>
+      <c r="E816" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>5</v>
+      </c>
+      <c r="B817" s="1">
+        <f t="shared" si="13"/>
+        <v>0.34291666666666665</v>
+      </c>
+      <c r="C817" t="s">
+        <v>96</v>
+      </c>
+      <c r="D817" t="s">
+        <v>92</v>
+      </c>
+      <c r="E817" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>5</v>
+      </c>
+      <c r="B818" s="1">
+        <f t="shared" si="13"/>
+        <v>0.40263888888888888</v>
+      </c>
+      <c r="C818" t="s">
+        <v>97</v>
+      </c>
+      <c r="D818" t="s">
+        <v>92</v>
+      </c>
+      <c r="E818" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>89</v>
+      </c>
+      <c r="B819" s="1">
+        <f t="shared" si="13"/>
+        <v>0.4040393518518518</v>
+      </c>
+      <c r="C819" t="s">
+        <v>97</v>
+      </c>
+      <c r="D819" t="s">
+        <v>92</v>
+      </c>
+      <c r="E819" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>88</v>
+      </c>
+      <c r="B820" s="1">
+        <f t="shared" si="13"/>
+        <v>0.40848379629629628</v>
+      </c>
+      <c r="C820" t="s">
+        <v>97</v>
+      </c>
+      <c r="D820" t="s">
+        <v>92</v>
+      </c>
+      <c r="E820" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>88</v>
+      </c>
+      <c r="B821" s="1">
+        <f t="shared" si="13"/>
+        <v>0.42035879629629624</v>
+      </c>
+      <c r="C821" t="s">
+        <v>98</v>
+      </c>
+      <c r="D821" t="s">
+        <v>92</v>
+      </c>
+      <c r="E821" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>89</v>
+      </c>
+      <c r="B822" s="1">
+        <f t="shared" si="13"/>
+        <v>0.42521990740740739</v>
+      </c>
+      <c r="C822" t="s">
+        <v>98</v>
+      </c>
+      <c r="D822" t="s">
+        <v>92</v>
+      </c>
+      <c r="E822" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>5</v>
+      </c>
+      <c r="B823" s="1">
+        <f t="shared" si="13"/>
+        <v>0.42624999999999996</v>
+      </c>
+      <c r="C823" t="s">
+        <v>98</v>
+      </c>
+      <c r="D823" t="s">
+        <v>92</v>
+      </c>
+      <c r="E823" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>5</v>
+      </c>
+      <c r="B824" s="1">
+        <f t="shared" si="13"/>
+        <v>0.48597222222222219</v>
+      </c>
+      <c r="C824" t="s">
+        <v>99</v>
+      </c>
+      <c r="D824" t="s">
+        <v>92</v>
+      </c>
+      <c r="E824" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>89</v>
+      </c>
+      <c r="B825" s="1">
+        <f t="shared" si="13"/>
+        <v>0.48737268518518512</v>
+      </c>
+      <c r="C825" t="s">
+        <v>99</v>
+      </c>
+      <c r="D825" t="s">
+        <v>92</v>
+      </c>
+      <c r="E825" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>88</v>
+      </c>
+      <c r="B826" s="1">
+        <f t="shared" si="13"/>
+        <v>0.49181712962962959</v>
+      </c>
+      <c r="C826" t="s">
+        <v>99</v>
+      </c>
+      <c r="D826" t="s">
+        <v>92</v>
+      </c>
+      <c r="E826" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>88</v>
+      </c>
+      <c r="B827" s="1">
+        <f t="shared" si="13"/>
+        <v>0.50369212962962961</v>
+      </c>
+      <c r="C827" t="s">
+        <v>100</v>
+      </c>
+      <c r="D827" t="s">
+        <v>92</v>
+      </c>
+      <c r="E827" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>89</v>
+      </c>
+      <c r="B828" s="1">
+        <f t="shared" si="13"/>
+        <v>0.50855324074074071</v>
+      </c>
+      <c r="C828" t="s">
+        <v>100</v>
+      </c>
+      <c r="D828" t="s">
+        <v>92</v>
+      </c>
+      <c r="E828" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>5</v>
+      </c>
+      <c r="B829" s="1">
+        <f t="shared" si="13"/>
+        <v>0.50958333333333328</v>
+      </c>
+      <c r="C829" t="s">
+        <v>100</v>
+      </c>
+      <c r="D829" t="s">
+        <v>92</v>
+      </c>
+      <c r="E829" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>5</v>
+      </c>
+      <c r="B830" s="1">
+        <f t="shared" si="13"/>
+        <v>0.56930555555555551</v>
+      </c>
+      <c r="C830" t="s">
+        <v>101</v>
+      </c>
+      <c r="D830" t="s">
+        <v>92</v>
+      </c>
+      <c r="E830" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>89</v>
+      </c>
+      <c r="B831" s="1">
+        <f t="shared" si="13"/>
+        <v>0.57070601851851843</v>
+      </c>
+      <c r="C831" t="s">
+        <v>101</v>
+      </c>
+      <c r="D831" t="s">
+        <v>92</v>
+      </c>
+      <c r="E831" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>88</v>
+      </c>
+      <c r="B832" s="1">
+        <f t="shared" si="13"/>
+        <v>0.57515046296296291</v>
+      </c>
+      <c r="C832" t="s">
+        <v>101</v>
+      </c>
+      <c r="D832" t="s">
+        <v>92</v>
+      </c>
+      <c r="E832" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>88</v>
+      </c>
+      <c r="B833" s="1">
+        <f t="shared" si="13"/>
+        <v>0.58702546296296299</v>
+      </c>
+      <c r="C833" t="s">
+        <v>102</v>
+      </c>
+      <c r="D833" t="s">
+        <v>92</v>
+      </c>
+      <c r="E833" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>89</v>
+      </c>
+      <c r="B834" s="1">
+        <f t="shared" si="13"/>
+        <v>0.59188657407407408</v>
+      </c>
+      <c r="C834" t="s">
+        <v>102</v>
+      </c>
+      <c r="D834" t="s">
+        <v>92</v>
+      </c>
+      <c r="E834" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>5</v>
+      </c>
+      <c r="B835" s="1">
+        <f t="shared" si="13"/>
+        <v>0.59291666666666665</v>
+      </c>
+      <c r="C835" t="s">
+        <v>102</v>
+      </c>
+      <c r="D835" t="s">
+        <v>92</v>
+      </c>
+      <c r="E835" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>5</v>
+      </c>
+      <c r="B836" s="1">
+        <f t="shared" si="13"/>
+        <v>0.65263888888888888</v>
+      </c>
+      <c r="C836" t="s">
+        <v>103</v>
+      </c>
+      <c r="D836" t="s">
+        <v>92</v>
+      </c>
+      <c r="E836" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>89</v>
+      </c>
+      <c r="B837" s="1">
+        <f t="shared" si="13"/>
+        <v>0.6540393518518518</v>
+      </c>
+      <c r="C837" t="s">
+        <v>103</v>
+      </c>
+      <c r="D837" t="s">
+        <v>92</v>
+      </c>
+      <c r="E837" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>88</v>
+      </c>
+      <c r="B838" s="1">
+        <f t="shared" si="13"/>
+        <v>0.65848379629629628</v>
+      </c>
+      <c r="C838" t="s">
+        <v>103</v>
+      </c>
+      <c r="D838" t="s">
+        <v>92</v>
+      </c>
+      <c r="E838" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>88</v>
+      </c>
+      <c r="B839" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67035879629629636</v>
+      </c>
+      <c r="C839" t="s">
+        <v>104</v>
+      </c>
+      <c r="D839" t="s">
+        <v>92</v>
+      </c>
+      <c r="E839" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>89</v>
+      </c>
+      <c r="B840" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67521990740740745</v>
+      </c>
+      <c r="C840" t="s">
+        <v>104</v>
+      </c>
+      <c r="D840" t="s">
+        <v>92</v>
+      </c>
+      <c r="E840" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>5</v>
+      </c>
+      <c r="B841" s="1">
+        <f t="shared" si="13"/>
+        <v>0.67625000000000002</v>
+      </c>
+      <c r="C841" t="s">
+        <v>104</v>
+      </c>
+      <c r="D841" t="s">
+        <v>92</v>
+      </c>
+      <c r="E841" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>5</v>
+      </c>
+      <c r="B842" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73597222222222225</v>
+      </c>
+      <c r="C842" t="s">
+        <v>105</v>
+      </c>
+      <c r="D842" t="s">
+        <v>92</v>
+      </c>
+      <c r="E842" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>89</v>
+      </c>
+      <c r="B843" s="1">
+        <f t="shared" si="13"/>
+        <v>0.73737268518518517</v>
+      </c>
+      <c r="C843" t="s">
+        <v>105</v>
+      </c>
+      <c r="D843" t="s">
+        <v>92</v>
+      </c>
+      <c r="E843" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>88</v>
+      </c>
+      <c r="B844" s="1">
+        <f t="shared" si="13"/>
+        <v>0.74181712962962965</v>
+      </c>
+      <c r="C844" t="s">
+        <v>105</v>
+      </c>
+      <c r="D844" t="s">
+        <v>92</v>
+      </c>
+      <c r="E844" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>88</v>
+      </c>
+      <c r="B845" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75369212962962973</v>
+      </c>
+      <c r="C845" t="s">
+        <v>106</v>
+      </c>
+      <c r="D845" t="s">
+        <v>92</v>
+      </c>
+      <c r="E845" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>89</v>
+      </c>
+      <c r="B846" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75855324074074082</v>
+      </c>
+      <c r="C846" t="s">
+        <v>106</v>
+      </c>
+      <c r="D846" t="s">
+        <v>92</v>
+      </c>
+      <c r="E846" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>5</v>
+      </c>
+      <c r="B847" s="1">
+        <f t="shared" si="13"/>
+        <v>0.75958333333333339</v>
+      </c>
+      <c r="C847" t="s">
+        <v>106</v>
+      </c>
+      <c r="D847" t="s">
+        <v>92</v>
+      </c>
+      <c r="E847" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>5</v>
+      </c>
+      <c r="B848" s="1">
+        <f t="shared" si="13"/>
+        <v>0.81930555555555562</v>
+      </c>
+      <c r="C848" t="s">
+        <v>107</v>
+      </c>
+      <c r="D848" t="s">
+        <v>92</v>
+      </c>
+      <c r="E848" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>89</v>
+      </c>
+      <c r="B849" s="1">
+        <f t="shared" si="13"/>
+        <v>0.82070601851851854</v>
+      </c>
+      <c r="C849" t="s">
+        <v>107</v>
+      </c>
+      <c r="D849" t="s">
+        <v>92</v>
+      </c>
+      <c r="E849" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>88</v>
+      </c>
+      <c r="B850" s="1">
+        <f t="shared" si="13"/>
+        <v>0.82515046296296302</v>
+      </c>
+      <c r="C850" t="s">
+        <v>107</v>
+      </c>
+      <c r="D850" t="s">
+        <v>92</v>
+      </c>
+      <c r="E850" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>88</v>
+      </c>
+      <c r="B851" s="1">
+        <f t="shared" si="13"/>
+        <v>0.8370254629629631</v>
+      </c>
+      <c r="C851" t="s">
+        <v>108</v>
+      </c>
+      <c r="D851" t="s">
+        <v>92</v>
+      </c>
+      <c r="E851" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>89</v>
+      </c>
+      <c r="B852" s="1">
+        <f t="shared" si="13"/>
+        <v>0.84188657407407419</v>
+      </c>
+      <c r="C852" t="s">
+        <v>108</v>
+      </c>
+      <c r="D852" t="s">
+        <v>92</v>
+      </c>
+      <c r="E852" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>5</v>
+      </c>
+      <c r="B853" s="1">
+        <f t="shared" si="13"/>
+        <v>0.84291666666666676</v>
+      </c>
+      <c r="C853" t="s">
+        <v>108</v>
+      </c>
+      <c r="D853" t="s">
+        <v>92</v>
+      </c>
+      <c r="E853" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>5</v>
+      </c>
+      <c r="B854" s="1">
+        <f t="shared" si="13"/>
+        <v>0.90263888888888899</v>
+      </c>
+      <c r="C854" t="s">
+        <v>109</v>
+      </c>
+      <c r="D854" t="s">
+        <v>92</v>
+      </c>
+      <c r="E854" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>89</v>
+      </c>
+      <c r="B855" s="1">
+        <f t="shared" si="13"/>
+        <v>0.90403935185185191</v>
+      </c>
+      <c r="C855" t="s">
+        <v>109</v>
+      </c>
+      <c r="D855" t="s">
+        <v>92</v>
+      </c>
+      <c r="E855" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>88</v>
+      </c>
+      <c r="B856" s="1">
+        <f t="shared" si="13"/>
+        <v>0.90848379629629639</v>
+      </c>
+      <c r="C856" t="s">
+        <v>109</v>
+      </c>
+      <c r="D856" t="s">
+        <v>92</v>
+      </c>
+      <c r="E856" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>88</v>
+      </c>
+      <c r="B857" s="1">
+        <f t="shared" si="13"/>
+        <v>0.92035879629629647</v>
+      </c>
+      <c r="C857" t="s">
+        <v>110</v>
+      </c>
+      <c r="D857" t="s">
+        <v>92</v>
+      </c>
+      <c r="E857" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>89</v>
+      </c>
+      <c r="B858" s="1">
+        <f t="shared" si="13"/>
+        <v>0.92521990740740756</v>
+      </c>
+      <c r="C858" t="s">
+        <v>110</v>
+      </c>
+      <c r="D858" t="s">
+        <v>92</v>
+      </c>
+      <c r="E858" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>5</v>
+      </c>
+      <c r="B859" s="1">
+        <f t="shared" si="13"/>
+        <v>0.92625000000000013</v>
+      </c>
+      <c r="C859" t="s">
+        <v>110</v>
+      </c>
+      <c r="D859" t="s">
+        <v>92</v>
+      </c>
+      <c r="E859" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>88</v>
+      </c>
+      <c r="B860" s="1">
+        <v>0.20975694444444445</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D860" t="s">
+        <v>92</v>
+      </c>
+      <c r="E860" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>89</v>
+      </c>
+      <c r="B861" s="1">
+        <v>0.21461805555555555</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D861" t="s">
+        <v>92</v>
+      </c>
+      <c r="E861" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>5</v>
+      </c>
+      <c r="B862" s="1">
+        <v>0.21564814814814814</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D862" t="s">
+        <v>92</v>
+      </c>
+      <c r="E862" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>5</v>
+      </c>
+      <c r="B863" s="1">
+        <v>0.27537037037037038</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D863" t="s">
+        <v>92</v>
+      </c>
+      <c r="E863" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>89</v>
+      </c>
+      <c r="B864" s="1">
+        <v>0.27677083333333335</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D864" t="s">
+        <v>92</v>
+      </c>
+      <c r="E864" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>88</v>
+      </c>
+      <c r="B865" s="1">
+        <v>0.28121527777777777</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D865" t="s">
+        <v>92</v>
+      </c>
+      <c r="E865" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>88</v>
+      </c>
+      <c r="B866" s="1">
+        <f>B860+(2/24)</f>
+        <v>0.2930902777777778</v>
+      </c>
+      <c r="C866" t="s">
+        <v>113</v>
+      </c>
+      <c r="D866" t="s">
+        <v>92</v>
+      </c>
+      <c r="E866" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>89</v>
+      </c>
+      <c r="B867" s="1">
+        <f t="shared" ref="B867:B913" si="14">B861+(2/24)</f>
+        <v>0.29795138888888889</v>
+      </c>
+      <c r="C867" t="s">
+        <v>113</v>
+      </c>
+      <c r="D867" t="s">
+        <v>92</v>
+      </c>
+      <c r="E867" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>5</v>
+      </c>
+      <c r="B868" s="1">
+        <f t="shared" si="14"/>
+        <v>0.29898148148148146</v>
+      </c>
+      <c r="C868" t="s">
+        <v>113</v>
+      </c>
+      <c r="D868" t="s">
+        <v>92</v>
+      </c>
+      <c r="E868" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>5</v>
+      </c>
+      <c r="B869" s="1">
+        <f t="shared" si="14"/>
+        <v>0.35870370370370369</v>
+      </c>
+      <c r="C869" t="s">
+        <v>114</v>
+      </c>
+      <c r="D869" t="s">
+        <v>92</v>
+      </c>
+      <c r="E869" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>89</v>
+      </c>
+      <c r="B870" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36010416666666667</v>
+      </c>
+      <c r="C870" t="s">
+        <v>114</v>
+      </c>
+      <c r="D870" t="s">
+        <v>92</v>
+      </c>
+      <c r="E870" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>88</v>
+      </c>
+      <c r="B871" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36454861111111109</v>
+      </c>
+      <c r="C871" t="s">
+        <v>114</v>
+      </c>
+      <c r="D871" t="s">
+        <v>92</v>
+      </c>
+      <c r="E871" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>88</v>
+      </c>
+      <c r="B872" s="1">
+        <f t="shared" si="14"/>
+        <v>0.37642361111111111</v>
+      </c>
+      <c r="C872" t="s">
+        <v>115</v>
+      </c>
+      <c r="D872" t="s">
+        <v>92</v>
+      </c>
+      <c r="E872" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>89</v>
+      </c>
+      <c r="B873" s="1">
+        <f t="shared" si="14"/>
+        <v>0.38128472222222221</v>
+      </c>
+      <c r="C873" t="s">
+        <v>115</v>
+      </c>
+      <c r="D873" t="s">
+        <v>92</v>
+      </c>
+      <c r="E873" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>5</v>
+      </c>
+      <c r="B874" s="1">
+        <f t="shared" si="14"/>
+        <v>0.38231481481481477</v>
+      </c>
+      <c r="C874" t="s">
+        <v>115</v>
+      </c>
+      <c r="D874" t="s">
+        <v>92</v>
+      </c>
+      <c r="E874" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B875" s="1">
+        <f t="shared" si="14"/>
+        <v>0.44203703703703701</v>
+      </c>
+      <c r="C875" t="s">
+        <v>116</v>
+      </c>
+      <c r="D875" t="s">
+        <v>92</v>
+      </c>
+      <c r="E875" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>89</v>
+      </c>
+      <c r="B876" s="1">
+        <f t="shared" si="14"/>
+        <v>0.44343749999999998</v>
+      </c>
+      <c r="C876" t="s">
+        <v>116</v>
+      </c>
+      <c r="D876" t="s">
+        <v>92</v>
+      </c>
+      <c r="E876" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>88</v>
+      </c>
+      <c r="B877" s="1">
+        <f t="shared" si="14"/>
+        <v>0.4478819444444444</v>
+      </c>
+      <c r="C877" t="s">
+        <v>116</v>
+      </c>
+      <c r="D877" t="s">
+        <v>92</v>
+      </c>
+      <c r="E877" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>88</v>
+      </c>
+      <c r="B878" s="1">
+        <f t="shared" si="14"/>
+        <v>0.45975694444444443</v>
+      </c>
+      <c r="C878" t="s">
+        <v>117</v>
+      </c>
+      <c r="D878" t="s">
+        <v>92</v>
+      </c>
+      <c r="E878" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>89</v>
+      </c>
+      <c r="B879" s="1">
+        <f t="shared" si="14"/>
+        <v>0.46461805555555552</v>
+      </c>
+      <c r="C879" t="s">
+        <v>117</v>
+      </c>
+      <c r="D879" t="s">
+        <v>92</v>
+      </c>
+      <c r="E879" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>5</v>
+      </c>
+      <c r="B880" s="1">
+        <f t="shared" si="14"/>
+        <v>0.46564814814814809</v>
+      </c>
+      <c r="C880" t="s">
+        <v>117</v>
+      </c>
+      <c r="D880" t="s">
+        <v>92</v>
+      </c>
+      <c r="E880" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>5</v>
+      </c>
+      <c r="B881" s="1">
+        <f t="shared" si="14"/>
+        <v>0.52537037037037038</v>
+      </c>
+      <c r="C881" t="s">
+        <v>118</v>
+      </c>
+      <c r="D881" t="s">
+        <v>92</v>
+      </c>
+      <c r="E881" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>89</v>
+      </c>
+      <c r="B882" s="1">
+        <f t="shared" si="14"/>
+        <v>0.5267708333333333</v>
+      </c>
+      <c r="C882" t="s">
+        <v>118</v>
+      </c>
+      <c r="D882" t="s">
+        <v>92</v>
+      </c>
+      <c r="E882" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>88</v>
+      </c>
+      <c r="B883" s="1">
+        <f t="shared" si="14"/>
+        <v>0.53121527777777777</v>
+      </c>
+      <c r="C883" t="s">
+        <v>118</v>
+      </c>
+      <c r="D883" t="s">
+        <v>92</v>
+      </c>
+      <c r="E883" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>88</v>
+      </c>
+      <c r="B884" s="1">
+        <f t="shared" si="14"/>
+        <v>0.54309027777777774</v>
+      </c>
+      <c r="C884" t="s">
+        <v>119</v>
+      </c>
+      <c r="D884" t="s">
+        <v>92</v>
+      </c>
+      <c r="E884" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>89</v>
+      </c>
+      <c r="B885" s="1">
+        <f t="shared" si="14"/>
+        <v>0.54795138888888884</v>
+      </c>
+      <c r="C885" t="s">
+        <v>119</v>
+      </c>
+      <c r="D885" t="s">
+        <v>92</v>
+      </c>
+      <c r="E885" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>5</v>
+      </c>
+      <c r="B886" s="1">
+        <f t="shared" si="14"/>
+        <v>0.5489814814814814</v>
+      </c>
+      <c r="C886" t="s">
+        <v>119</v>
+      </c>
+      <c r="D886" t="s">
+        <v>92</v>
+      </c>
+      <c r="E886" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>5</v>
+      </c>
+      <c r="B887" s="1">
+        <f t="shared" si="14"/>
+        <v>0.60870370370370375</v>
+      </c>
+      <c r="C887" t="s">
+        <v>120</v>
+      </c>
+      <c r="D887" t="s">
+        <v>92</v>
+      </c>
+      <c r="E887" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>89</v>
+      </c>
+      <c r="B888" s="1">
+        <f t="shared" si="14"/>
+        <v>0.61010416666666667</v>
+      </c>
+      <c r="C888" t="s">
+        <v>120</v>
+      </c>
+      <c r="D888" t="s">
+        <v>92</v>
+      </c>
+      <c r="E888" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>88</v>
+      </c>
+      <c r="B889" s="1">
+        <f t="shared" si="14"/>
+        <v>0.61454861111111114</v>
+      </c>
+      <c r="C889" t="s">
+        <v>120</v>
+      </c>
+      <c r="D889" t="s">
+        <v>92</v>
+      </c>
+      <c r="E889" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>88</v>
+      </c>
+      <c r="B890" s="1">
+        <f t="shared" si="14"/>
+        <v>0.62642361111111111</v>
+      </c>
+      <c r="C890" t="s">
+        <v>121</v>
+      </c>
+      <c r="D890" t="s">
+        <v>92</v>
+      </c>
+      <c r="E890" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>89</v>
+      </c>
+      <c r="B891" s="1">
+        <f t="shared" si="14"/>
+        <v>0.63128472222222221</v>
+      </c>
+      <c r="C891" t="s">
+        <v>121</v>
+      </c>
+      <c r="D891" t="s">
+        <v>92</v>
+      </c>
+      <c r="E891" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>5</v>
+      </c>
+      <c r="B892" s="1">
+        <f t="shared" si="14"/>
+        <v>0.63231481481481477</v>
+      </c>
+      <c r="C892" t="s">
+        <v>121</v>
+      </c>
+      <c r="D892" t="s">
+        <v>92</v>
+      </c>
+      <c r="E892" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>5</v>
+      </c>
+      <c r="B893" s="1">
+        <f t="shared" si="14"/>
+        <v>0.69203703703703712</v>
+      </c>
+      <c r="C893" t="s">
+        <v>122</v>
+      </c>
+      <c r="D893" t="s">
+        <v>92</v>
+      </c>
+      <c r="E893" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>89</v>
+      </c>
+      <c r="B894" s="1">
+        <f t="shared" si="14"/>
+        <v>0.69343750000000004</v>
+      </c>
+      <c r="C894" t="s">
+        <v>122</v>
+      </c>
+      <c r="D894" t="s">
+        <v>92</v>
+      </c>
+      <c r="E894" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>88</v>
+      </c>
+      <c r="B895" s="1">
+        <f t="shared" si="14"/>
+        <v>0.69788194444444451</v>
+      </c>
+      <c r="C895" t="s">
+        <v>122</v>
+      </c>
+      <c r="D895" t="s">
+        <v>92</v>
+      </c>
+      <c r="E895" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>88</v>
+      </c>
+      <c r="B896" s="1">
+        <f t="shared" si="14"/>
+        <v>0.70975694444444448</v>
+      </c>
+      <c r="C896" t="s">
+        <v>123</v>
+      </c>
+      <c r="D896" t="s">
+        <v>92</v>
+      </c>
+      <c r="E896" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>89</v>
+      </c>
+      <c r="B897" s="1">
+        <f t="shared" si="14"/>
+        <v>0.71461805555555558</v>
+      </c>
+      <c r="C897" t="s">
+        <v>123</v>
+      </c>
+      <c r="D897" t="s">
+        <v>92</v>
+      </c>
+      <c r="E897" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>5</v>
+      </c>
+      <c r="B898" s="1">
+        <f t="shared" si="14"/>
+        <v>0.71564814814814814</v>
+      </c>
+      <c r="C898" t="s">
+        <v>123</v>
+      </c>
+      <c r="D898" t="s">
+        <v>92</v>
+      </c>
+      <c r="E898" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>5</v>
+      </c>
+      <c r="B899" s="1">
+        <f t="shared" si="14"/>
+        <v>0.77537037037037049</v>
+      </c>
+      <c r="C899" t="s">
+        <v>124</v>
+      </c>
+      <c r="D899" t="s">
+        <v>92</v>
+      </c>
+      <c r="E899" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>89</v>
+      </c>
+      <c r="B900" s="1">
+        <f t="shared" si="14"/>
+        <v>0.77677083333333341</v>
+      </c>
+      <c r="C900" t="s">
+        <v>124</v>
+      </c>
+      <c r="D900" t="s">
+        <v>92</v>
+      </c>
+      <c r="E900" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>88</v>
+      </c>
+      <c r="B901" s="1">
+        <f t="shared" si="14"/>
+        <v>0.78121527777777788</v>
+      </c>
+      <c r="C901" t="s">
+        <v>124</v>
+      </c>
+      <c r="D901" t="s">
+        <v>92</v>
+      </c>
+      <c r="E901" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>88</v>
+      </c>
+      <c r="B902" s="1">
+        <f t="shared" si="14"/>
+        <v>0.79309027777777785</v>
+      </c>
+      <c r="C902" t="s">
+        <v>125</v>
+      </c>
+      <c r="D902" t="s">
+        <v>92</v>
+      </c>
+      <c r="E902" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>89</v>
+      </c>
+      <c r="B903" s="1">
+        <f t="shared" si="14"/>
+        <v>0.79795138888888895</v>
+      </c>
+      <c r="C903" t="s">
+        <v>125</v>
+      </c>
+      <c r="D903" t="s">
+        <v>92</v>
+      </c>
+      <c r="E903" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>5</v>
+      </c>
+      <c r="B904" s="1">
+        <f t="shared" si="14"/>
+        <v>0.79898148148148151</v>
+      </c>
+      <c r="C904" t="s">
+        <v>125</v>
+      </c>
+      <c r="D904" t="s">
+        <v>92</v>
+      </c>
+      <c r="E904" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>5</v>
+      </c>
+      <c r="B905" s="1">
+        <f t="shared" si="14"/>
+        <v>0.85870370370370386</v>
+      </c>
+      <c r="C905" t="s">
+        <v>126</v>
+      </c>
+      <c r="D905" t="s">
+        <v>92</v>
+      </c>
+      <c r="E905" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>89</v>
+      </c>
+      <c r="B906" s="1">
+        <f t="shared" si="14"/>
+        <v>0.86010416666666678</v>
+      </c>
+      <c r="C906" t="s">
+        <v>126</v>
+      </c>
+      <c r="D906" t="s">
+        <v>92</v>
+      </c>
+      <c r="E906" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>88</v>
+      </c>
+      <c r="B907" s="1">
+        <f t="shared" si="14"/>
+        <v>0.86454861111111125</v>
+      </c>
+      <c r="C907" t="s">
+        <v>126</v>
+      </c>
+      <c r="D907" t="s">
+        <v>92</v>
+      </c>
+      <c r="E907" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>88</v>
+      </c>
+      <c r="B908" s="1">
+        <f t="shared" si="14"/>
+        <v>0.87642361111111122</v>
+      </c>
+      <c r="C908" t="s">
+        <v>127</v>
+      </c>
+      <c r="D908" t="s">
+        <v>92</v>
+      </c>
+      <c r="E908" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>89</v>
+      </c>
+      <c r="B909" s="1">
+        <f t="shared" si="14"/>
+        <v>0.88128472222222232</v>
+      </c>
+      <c r="C909" t="s">
+        <v>127</v>
+      </c>
+      <c r="D909" t="s">
+        <v>92</v>
+      </c>
+      <c r="E909" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>5</v>
+      </c>
+      <c r="B910" s="1">
+        <f t="shared" si="14"/>
+        <v>0.88231481481481489</v>
+      </c>
+      <c r="C910" t="s">
+        <v>127</v>
+      </c>
+      <c r="D910" t="s">
+        <v>92</v>
+      </c>
+      <c r="E910" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>5</v>
+      </c>
+      <c r="B911" s="1">
+        <f t="shared" si="14"/>
+        <v>0.94203703703703723</v>
+      </c>
+      <c r="C911" t="s">
+        <v>128</v>
+      </c>
+      <c r="D911" t="s">
+        <v>92</v>
+      </c>
+      <c r="E911" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>89</v>
+      </c>
+      <c r="B912" s="1">
+        <f t="shared" si="14"/>
+        <v>0.94343750000000015</v>
+      </c>
+      <c r="C912" t="s">
+        <v>128</v>
+      </c>
+      <c r="D912" t="s">
+        <v>92</v>
+      </c>
+      <c r="E912" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>88</v>
+      </c>
+      <c r="B913" s="1">
+        <f t="shared" si="14"/>
+        <v>0.94788194444444462</v>
+      </c>
+      <c r="C913" t="s">
+        <v>128</v>
+      </c>
+      <c r="D913" t="s">
+        <v>92</v>
+      </c>
+      <c r="E913" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>5</v>
+      </c>
+      <c r="B914" s="1">
+        <f>B806+(0.5/24)</f>
+        <v>0.25680555555555556</v>
+      </c>
+      <c r="C914" t="s">
+        <v>129</v>
+      </c>
+      <c r="D914" t="s">
+        <v>92</v>
+      </c>
+      <c r="E914" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>89</v>
+      </c>
+      <c r="B915" s="1">
+        <f t="shared" ref="B915:B978" si="15">B807+(0.5/24)</f>
+        <v>0.25820601851851849</v>
+      </c>
+      <c r="C915" t="s">
+        <v>129</v>
+      </c>
+      <c r="D915" t="s">
+        <v>92</v>
+      </c>
+      <c r="E915" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>88</v>
+      </c>
+      <c r="B916" s="1">
+        <f t="shared" si="15"/>
+        <v>0.26265046296296296</v>
+      </c>
+      <c r="C916" t="s">
+        <v>129</v>
+      </c>
+      <c r="D916" t="s">
+        <v>92</v>
+      </c>
+      <c r="E916" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>88</v>
+      </c>
+      <c r="B917" s="1">
+        <f t="shared" si="15"/>
+        <v>0.27452546296296293</v>
+      </c>
+      <c r="C917" t="s">
+        <v>130</v>
+      </c>
+      <c r="D917" t="s">
+        <v>92</v>
+      </c>
+      <c r="E917" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>89</v>
+      </c>
+      <c r="B918" s="1">
+        <f t="shared" si="15"/>
+        <v>0.27938657407407408</v>
+      </c>
+      <c r="C918" t="s">
+        <v>130</v>
+      </c>
+      <c r="D918" t="s">
+        <v>92</v>
+      </c>
+      <c r="E918" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>5</v>
+      </c>
+      <c r="B919" s="1">
+        <f t="shared" si="15"/>
+        <v>0.28041666666666665</v>
+      </c>
+      <c r="C919" t="s">
+        <v>130</v>
+      </c>
+      <c r="D919" t="s">
+        <v>92</v>
+      </c>
+      <c r="E919" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>5</v>
+      </c>
+      <c r="B920" s="1">
+        <f t="shared" si="15"/>
+        <v>0.34013888888888888</v>
+      </c>
+      <c r="C920" t="s">
+        <v>131</v>
+      </c>
+      <c r="D920" t="s">
+        <v>92</v>
+      </c>
+      <c r="E920" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>89</v>
+      </c>
+      <c r="B921" s="1">
+        <f t="shared" si="15"/>
+        <v>0.3415393518518518</v>
+      </c>
+      <c r="C921" t="s">
+        <v>131</v>
+      </c>
+      <c r="D921" t="s">
+        <v>92</v>
+      </c>
+      <c r="E921" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>88</v>
+      </c>
+      <c r="B922" s="1">
+        <f t="shared" si="15"/>
+        <v>0.34598379629629628</v>
+      </c>
+      <c r="C922" t="s">
+        <v>131</v>
+      </c>
+      <c r="D922" t="s">
+        <v>92</v>
+      </c>
+      <c r="E922" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>88</v>
+      </c>
+      <c r="B923" s="1">
+        <f t="shared" si="15"/>
+        <v>0.35785879629629624</v>
+      </c>
+      <c r="C923" t="s">
+        <v>132</v>
+      </c>
+      <c r="D923" t="s">
+        <v>92</v>
+      </c>
+      <c r="E923" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>89</v>
+      </c>
+      <c r="B924" s="1">
+        <f t="shared" si="15"/>
+        <v>0.36271990740740739</v>
+      </c>
+      <c r="C924" t="s">
+        <v>132</v>
+      </c>
+      <c r="D924" t="s">
+        <v>92</v>
+      </c>
+      <c r="E924" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>5</v>
+      </c>
+      <c r="B925" s="1">
+        <f t="shared" si="15"/>
+        <v>0.36374999999999996</v>
+      </c>
+      <c r="C925" t="s">
+        <v>132</v>
+      </c>
+      <c r="D925" t="s">
+        <v>92</v>
+      </c>
+      <c r="E925" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>5</v>
+      </c>
+      <c r="B926" s="1">
+        <f t="shared" si="15"/>
+        <v>0.42347222222222219</v>
+      </c>
+      <c r="C926" t="s">
+        <v>133</v>
+      </c>
+      <c r="D926" t="s">
+        <v>92</v>
+      </c>
+      <c r="E926" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>89</v>
+      </c>
+      <c r="B927" s="1">
+        <f t="shared" si="15"/>
+        <v>0.42487268518518512</v>
+      </c>
+      <c r="C927" t="s">
+        <v>133</v>
+      </c>
+      <c r="D927" t="s">
+        <v>92</v>
+      </c>
+      <c r="E927" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>88</v>
+      </c>
+      <c r="B928" s="1">
+        <f t="shared" si="15"/>
+        <v>0.42931712962962959</v>
+      </c>
+      <c r="C928" t="s">
+        <v>133</v>
+      </c>
+      <c r="D928" t="s">
+        <v>92</v>
+      </c>
+      <c r="E928" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>88</v>
+      </c>
+      <c r="B929" s="1">
+        <f t="shared" si="15"/>
+        <v>0.44119212962962956</v>
+      </c>
+      <c r="C929" t="s">
+        <v>134</v>
+      </c>
+      <c r="D929" t="s">
+        <v>92</v>
+      </c>
+      <c r="E929" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>89</v>
+      </c>
+      <c r="B930" s="1">
+        <f t="shared" si="15"/>
+        <v>0.44605324074074071</v>
+      </c>
+      <c r="C930" t="s">
+        <v>134</v>
+      </c>
+      <c r="D930" t="s">
+        <v>92</v>
+      </c>
+      <c r="E930" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>5</v>
+      </c>
+      <c r="B931" s="1">
+        <f t="shared" si="15"/>
+        <v>0.44708333333333328</v>
+      </c>
+      <c r="C931" t="s">
+        <v>134</v>
+      </c>
+      <c r="D931" t="s">
+        <v>92</v>
+      </c>
+      <c r="E931" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>5</v>
+      </c>
+      <c r="B932" s="1">
+        <f t="shared" si="15"/>
+        <v>0.50680555555555551</v>
+      </c>
+      <c r="C932" t="s">
+        <v>135</v>
+      </c>
+      <c r="D932" t="s">
+        <v>92</v>
+      </c>
+      <c r="E932" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>89</v>
+      </c>
+      <c r="B933" s="1">
+        <f t="shared" si="15"/>
+        <v>0.50820601851851843</v>
+      </c>
+      <c r="C933" t="s">
+        <v>135</v>
+      </c>
+      <c r="D933" t="s">
+        <v>92</v>
+      </c>
+      <c r="E933" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>88</v>
+      </c>
+      <c r="B934" s="1">
+        <f t="shared" si="15"/>
+        <v>0.51265046296296291</v>
+      </c>
+      <c r="C934" t="s">
+        <v>135</v>
+      </c>
+      <c r="D934" t="s">
+        <v>92</v>
+      </c>
+      <c r="E934" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>88</v>
+      </c>
+      <c r="B935" s="1">
+        <f t="shared" si="15"/>
+        <v>0.52452546296296299</v>
+      </c>
+      <c r="C935" t="s">
+        <v>136</v>
+      </c>
+      <c r="D935" t="s">
+        <v>92</v>
+      </c>
+      <c r="E935" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>89</v>
+      </c>
+      <c r="B936" s="1">
+        <f t="shared" si="15"/>
+        <v>0.52938657407407408</v>
+      </c>
+      <c r="C936" t="s">
+        <v>136</v>
+      </c>
+      <c r="D936" t="s">
+        <v>92</v>
+      </c>
+      <c r="E936" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>5</v>
+      </c>
+      <c r="B937" s="1">
+        <f t="shared" si="15"/>
+        <v>0.53041666666666665</v>
+      </c>
+      <c r="C937" t="s">
+        <v>136</v>
+      </c>
+      <c r="D937" t="s">
+        <v>92</v>
+      </c>
+      <c r="E937" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>5</v>
+      </c>
+      <c r="B938" s="1">
+        <f t="shared" si="15"/>
+        <v>0.59013888888888888</v>
+      </c>
+      <c r="C938" t="s">
+        <v>137</v>
+      </c>
+      <c r="D938" t="s">
+        <v>92</v>
+      </c>
+      <c r="E938" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>89</v>
+      </c>
+      <c r="B939" s="1">
+        <f t="shared" si="15"/>
+        <v>0.5915393518518518</v>
+      </c>
+      <c r="C939" t="s">
+        <v>137</v>
+      </c>
+      <c r="D939" t="s">
+        <v>92</v>
+      </c>
+      <c r="E939" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>88</v>
+      </c>
+      <c r="B940" s="1">
+        <f t="shared" si="15"/>
+        <v>0.59598379629629628</v>
+      </c>
+      <c r="C940" t="s">
+        <v>137</v>
+      </c>
+      <c r="D940" t="s">
+        <v>92</v>
+      </c>
+      <c r="E940" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>88</v>
+      </c>
+      <c r="B941" s="1">
+        <f t="shared" si="15"/>
+        <v>0.60785879629629636</v>
+      </c>
+      <c r="C941" t="s">
+        <v>138</v>
+      </c>
+      <c r="D941" t="s">
+        <v>92</v>
+      </c>
+      <c r="E941" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>89</v>
+      </c>
+      <c r="B942" s="1">
+        <f t="shared" si="15"/>
+        <v>0.61271990740740745</v>
+      </c>
+      <c r="C942" t="s">
+        <v>138</v>
+      </c>
+      <c r="D942" t="s">
+        <v>92</v>
+      </c>
+      <c r="E942" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>5</v>
+      </c>
+      <c r="B943" s="1">
+        <f t="shared" si="15"/>
+        <v>0.61375000000000002</v>
+      </c>
+      <c r="C943" t="s">
+        <v>138</v>
+      </c>
+      <c r="D943" t="s">
+        <v>92</v>
+      </c>
+      <c r="E943" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>5</v>
+      </c>
+      <c r="B944" s="1">
+        <f t="shared" si="15"/>
+        <v>0.67347222222222225</v>
+      </c>
+      <c r="C944" t="s">
+        <v>139</v>
+      </c>
+      <c r="D944" t="s">
+        <v>92</v>
+      </c>
+      <c r="E944" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>89</v>
+      </c>
+      <c r="B945" s="1">
+        <f t="shared" si="15"/>
+        <v>0.67487268518518517</v>
+      </c>
+      <c r="C945" t="s">
+        <v>139</v>
+      </c>
+      <c r="D945" t="s">
+        <v>92</v>
+      </c>
+      <c r="E945" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>88</v>
+      </c>
+      <c r="B946" s="1">
+        <f t="shared" si="15"/>
+        <v>0.67931712962962965</v>
+      </c>
+      <c r="C946" t="s">
+        <v>139</v>
+      </c>
+      <c r="D946" t="s">
+        <v>92</v>
+      </c>
+      <c r="E946" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>88</v>
+      </c>
+      <c r="B947" s="1">
+        <f t="shared" si="15"/>
+        <v>0.69119212962962973</v>
+      </c>
+      <c r="C947" t="s">
+        <v>140</v>
+      </c>
+      <c r="D947" t="s">
+        <v>92</v>
+      </c>
+      <c r="E947" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>89</v>
+      </c>
+      <c r="B948" s="1">
+        <f t="shared" si="15"/>
+        <v>0.69605324074074082</v>
+      </c>
+      <c r="C948" t="s">
+        <v>140</v>
+      </c>
+      <c r="D948" t="s">
+        <v>92</v>
+      </c>
+      <c r="E948" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>5</v>
+      </c>
+      <c r="B949" s="1">
+        <f t="shared" si="15"/>
+        <v>0.69708333333333339</v>
+      </c>
+      <c r="C949" t="s">
+        <v>140</v>
+      </c>
+      <c r="D949" t="s">
+        <v>92</v>
+      </c>
+      <c r="E949" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>5</v>
+      </c>
+      <c r="B950" s="1">
+        <f t="shared" si="15"/>
+        <v>0.75680555555555562</v>
+      </c>
+      <c r="C950" t="s">
+        <v>141</v>
+      </c>
+      <c r="D950" t="s">
+        <v>92</v>
+      </c>
+      <c r="E950" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>89</v>
+      </c>
+      <c r="B951" s="1">
+        <f t="shared" si="15"/>
+        <v>0.75820601851851854</v>
+      </c>
+      <c r="C951" t="s">
+        <v>141</v>
+      </c>
+      <c r="D951" t="s">
+        <v>92</v>
+      </c>
+      <c r="E951" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>88</v>
+      </c>
+      <c r="B952" s="1">
+        <f t="shared" si="15"/>
+        <v>0.76265046296296302</v>
+      </c>
+      <c r="C952" t="s">
+        <v>141</v>
+      </c>
+      <c r="D952" t="s">
+        <v>92</v>
+      </c>
+      <c r="E952" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>88</v>
+      </c>
+      <c r="B953" s="1">
+        <f t="shared" si="15"/>
+        <v>0.7745254629629631</v>
+      </c>
+      <c r="C953" t="s">
+        <v>142</v>
+      </c>
+      <c r="D953" t="s">
+        <v>92</v>
+      </c>
+      <c r="E953" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>89</v>
+      </c>
+      <c r="B954" s="1">
+        <f t="shared" si="15"/>
+        <v>0.77938657407407419</v>
+      </c>
+      <c r="C954" t="s">
+        <v>142</v>
+      </c>
+      <c r="D954" t="s">
+        <v>92</v>
+      </c>
+      <c r="E954" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>5</v>
+      </c>
+      <c r="B955" s="1">
+        <f t="shared" si="15"/>
+        <v>0.78041666666666676</v>
+      </c>
+      <c r="C955" t="s">
+        <v>142</v>
+      </c>
+      <c r="D955" t="s">
+        <v>92</v>
+      </c>
+      <c r="E955" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>5</v>
+      </c>
+      <c r="B956" s="1">
+        <f t="shared" si="15"/>
+        <v>0.84013888888888899</v>
+      </c>
+      <c r="C956" t="s">
+        <v>143</v>
+      </c>
+      <c r="D956" t="s">
+        <v>92</v>
+      </c>
+      <c r="E956" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>89</v>
+      </c>
+      <c r="B957" s="1">
+        <f t="shared" si="15"/>
+        <v>0.84153935185185191</v>
+      </c>
+      <c r="C957" t="s">
+        <v>143</v>
+      </c>
+      <c r="D957" t="s">
+        <v>92</v>
+      </c>
+      <c r="E957" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>88</v>
+      </c>
+      <c r="B958" s="1">
+        <f t="shared" si="15"/>
+        <v>0.84598379629629639</v>
+      </c>
+      <c r="C958" t="s">
+        <v>143</v>
+      </c>
+      <c r="D958" t="s">
+        <v>92</v>
+      </c>
+      <c r="E958" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>88</v>
+      </c>
+      <c r="B959" s="1">
+        <f t="shared" si="15"/>
+        <v>0.85785879629629647</v>
+      </c>
+      <c r="C959" t="s">
+        <v>144</v>
+      </c>
+      <c r="D959" t="s">
+        <v>92</v>
+      </c>
+      <c r="E959" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>89</v>
+      </c>
+      <c r="B960" s="1">
+        <f t="shared" si="15"/>
+        <v>0.86271990740740756</v>
+      </c>
+      <c r="C960" t="s">
+        <v>144</v>
+      </c>
+      <c r="D960" t="s">
+        <v>92</v>
+      </c>
+      <c r="E960" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B961" s="1">
+        <f t="shared" si="15"/>
+        <v>0.86375000000000013</v>
+      </c>
+      <c r="C961" t="s">
+        <v>144</v>
+      </c>
+      <c r="D961" t="s">
+        <v>92</v>
+      </c>
+      <c r="E961" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B962" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92347222222222236</v>
+      </c>
+      <c r="C962" t="s">
+        <v>145</v>
+      </c>
+      <c r="D962" t="s">
+        <v>92</v>
+      </c>
+      <c r="E962" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>89</v>
+      </c>
+      <c r="B963" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92487268518518528</v>
+      </c>
+      <c r="C963" t="s">
+        <v>145</v>
+      </c>
+      <c r="D963" t="s">
+        <v>92</v>
+      </c>
+      <c r="E963" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>88</v>
+      </c>
+      <c r="B964" s="1">
+        <f t="shared" si="15"/>
+        <v>0.92931712962962976</v>
+      </c>
+      <c r="C964" t="s">
+        <v>145</v>
+      </c>
+      <c r="D964" t="s">
+        <v>92</v>
+      </c>
+      <c r="E964" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>88</v>
+      </c>
+      <c r="B965" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94119212962962984</v>
+      </c>
+      <c r="C965" t="s">
+        <v>146</v>
+      </c>
+      <c r="D965" t="s">
+        <v>92</v>
+      </c>
+      <c r="E965" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>89</v>
+      </c>
+      <c r="B966" s="1">
+        <f t="shared" si="15"/>
+        <v>0.94605324074074093</v>
+      </c>
+      <c r="C966" t="s">
+        <v>146</v>
+      </c>
+      <c r="D966" t="s">
+        <v>92</v>
+      </c>
+      <c r="E966" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B967" s="1">
+        <f t="shared" si="15"/>
+        <v>0.9470833333333335</v>
+      </c>
+      <c r="C967" t="s">
+        <v>146</v>
+      </c>
+      <c r="D967" t="s">
+        <v>92</v>
+      </c>
+      <c r="E967" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>88</v>
+      </c>
+      <c r="B968" s="1">
+        <f t="shared" si="15"/>
+        <v>0.2305902777777778</v>
+      </c>
+      <c r="C968" t="s">
+        <v>147</v>
+      </c>
+      <c r="D968" t="s">
+        <v>92</v>
+      </c>
+      <c r="E968" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>89</v>
+      </c>
+      <c r="B969" s="1">
+        <f t="shared" si="15"/>
+        <v>0.23545138888888889</v>
+      </c>
+      <c r="C969" t="s">
+        <v>147</v>
+      </c>
+      <c r="D969" t="s">
+        <v>92</v>
+      </c>
+      <c r="E969" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B970" s="1">
+        <f t="shared" si="15"/>
+        <v>0.23648148148148149</v>
+      </c>
+      <c r="C970" t="s">
+        <v>147</v>
+      </c>
+      <c r="D970" t="s">
+        <v>92</v>
+      </c>
+      <c r="E970" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B971" s="1">
+        <f t="shared" si="15"/>
+        <v>0.29620370370370369</v>
+      </c>
+      <c r="C971" t="s">
+        <v>148</v>
+      </c>
+      <c r="D971" t="s">
+        <v>92</v>
+      </c>
+      <c r="E971" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>89</v>
+      </c>
+      <c r="B972" s="1">
+        <f t="shared" si="15"/>
+        <v>0.29760416666666667</v>
+      </c>
+      <c r="C972" t="s">
+        <v>148</v>
+      </c>
+      <c r="D972" t="s">
+        <v>92</v>
+      </c>
+      <c r="E972" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>88</v>
+      </c>
+      <c r="B973" s="1">
+        <f t="shared" si="15"/>
+        <v>0.30204861111111109</v>
+      </c>
+      <c r="C973" t="s">
+        <v>148</v>
+      </c>
+      <c r="D973" t="s">
+        <v>92</v>
+      </c>
+      <c r="E973" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>88</v>
+      </c>
+      <c r="B974" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31392361111111111</v>
+      </c>
+      <c r="C974" t="s">
+        <v>149</v>
+      </c>
+      <c r="D974" t="s">
+        <v>92</v>
+      </c>
+      <c r="E974" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>89</v>
+      </c>
+      <c r="B975" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31878472222222221</v>
+      </c>
+      <c r="C975" t="s">
+        <v>149</v>
+      </c>
+      <c r="D975" t="s">
+        <v>92</v>
+      </c>
+      <c r="E975" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B976" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31981481481481477</v>
+      </c>
+      <c r="C976" t="s">
+        <v>149</v>
+      </c>
+      <c r="D976" t="s">
+        <v>92</v>
+      </c>
+      <c r="E976" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B977" s="1">
+        <f t="shared" si="15"/>
+        <v>0.37953703703703701</v>
+      </c>
+      <c r="C977" t="s">
+        <v>150</v>
+      </c>
+      <c r="D977" t="s">
+        <v>92</v>
+      </c>
+      <c r="E977" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>89</v>
+      </c>
+      <c r="B978" s="1">
+        <f t="shared" si="15"/>
+        <v>0.38093749999999998</v>
+      </c>
+      <c r="C978" t="s">
+        <v>150</v>
+      </c>
+      <c r="D978" t="s">
+        <v>92</v>
+      </c>
+      <c r="E978" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>88</v>
+      </c>
+      <c r="B979" s="1">
+        <f t="shared" ref="B979:B1021" si="16">B871+(0.5/24)</f>
+        <v>0.3853819444444444</v>
+      </c>
+      <c r="C979" t="s">
+        <v>150</v>
+      </c>
+      <c r="D979" t="s">
+        <v>92</v>
+      </c>
+      <c r="E979" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>88</v>
+      </c>
+      <c r="B980" s="1">
+        <f t="shared" si="16"/>
+        <v>0.39725694444444443</v>
+      </c>
+      <c r="C980" t="s">
+        <v>151</v>
+      </c>
+      <c r="D980" t="s">
+        <v>92</v>
+      </c>
+      <c r="E980" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>89</v>
+      </c>
+      <c r="B981" s="1">
+        <f t="shared" si="16"/>
+        <v>0.40211805555555552</v>
+      </c>
+      <c r="C981" t="s">
+        <v>151</v>
+      </c>
+      <c r="D981" t="s">
+        <v>92</v>
+      </c>
+      <c r="E981" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B982" s="1">
+        <f t="shared" si="16"/>
+        <v>0.40314814814814809</v>
+      </c>
+      <c r="C982" t="s">
+        <v>151</v>
+      </c>
+      <c r="D982" t="s">
+        <v>92</v>
+      </c>
+      <c r="E982" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B983" s="1">
+        <f t="shared" si="16"/>
+        <v>0.46287037037037032</v>
+      </c>
+      <c r="C983" t="s">
+        <v>152</v>
+      </c>
+      <c r="D983" t="s">
+        <v>92</v>
+      </c>
+      <c r="E983" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>89</v>
+      </c>
+      <c r="B984" s="1">
+        <f t="shared" si="16"/>
+        <v>0.4642708333333333</v>
+      </c>
+      <c r="C984" t="s">
+        <v>152</v>
+      </c>
+      <c r="D984" t="s">
+        <v>92</v>
+      </c>
+      <c r="E984" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>88</v>
+      </c>
+      <c r="B985" s="1">
+        <f t="shared" si="16"/>
+        <v>0.46871527777777772</v>
+      </c>
+      <c r="C985" t="s">
+        <v>152</v>
+      </c>
+      <c r="D985" t="s">
+        <v>92</v>
+      </c>
+      <c r="E985" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>88</v>
+      </c>
+      <c r="B986" s="1">
+        <f t="shared" si="16"/>
+        <v>0.48059027777777774</v>
+      </c>
+      <c r="C986" t="s">
+        <v>153</v>
+      </c>
+      <c r="D986" t="s">
+        <v>92</v>
+      </c>
+      <c r="E986" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>89</v>
+      </c>
+      <c r="B987" s="1">
+        <f t="shared" si="16"/>
+        <v>0.48545138888888884</v>
+      </c>
+      <c r="C987" t="s">
+        <v>153</v>
+      </c>
+      <c r="D987" t="s">
+        <v>92</v>
+      </c>
+      <c r="E987" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B988" s="1">
+        <f t="shared" si="16"/>
+        <v>0.4864814814814814</v>
+      </c>
+      <c r="C988" t="s">
+        <v>153</v>
+      </c>
+      <c r="D988" t="s">
+        <v>92</v>
+      </c>
+      <c r="E988" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B989" s="1">
+        <f t="shared" si="16"/>
+        <v>0.54620370370370375</v>
+      </c>
+      <c r="C989" t="s">
+        <v>154</v>
+      </c>
+      <c r="D989" t="s">
+        <v>92</v>
+      </c>
+      <c r="E989" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>89</v>
+      </c>
+      <c r="B990" s="1">
+        <f t="shared" si="16"/>
+        <v>0.54760416666666667</v>
+      </c>
+      <c r="C990" t="s">
+        <v>154</v>
+      </c>
+      <c r="D990" t="s">
+        <v>92</v>
+      </c>
+      <c r="E990" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>88</v>
+      </c>
+      <c r="B991" s="1">
+        <f t="shared" si="16"/>
+        <v>0.55204861111111114</v>
+      </c>
+      <c r="C991" t="s">
+        <v>154</v>
+      </c>
+      <c r="D991" t="s">
+        <v>92</v>
+      </c>
+      <c r="E991" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>88</v>
+      </c>
+      <c r="B992" s="1">
+        <f t="shared" si="16"/>
+        <v>0.56392361111111111</v>
+      </c>
+      <c r="C992" t="s">
+        <v>155</v>
+      </c>
+      <c r="D992" t="s">
+        <v>92</v>
+      </c>
+      <c r="E992" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>89</v>
+      </c>
+      <c r="B993" s="1">
+        <f t="shared" si="16"/>
+        <v>0.56878472222222221</v>
+      </c>
+      <c r="C993" t="s">
+        <v>155</v>
+      </c>
+      <c r="D993" t="s">
+        <v>92</v>
+      </c>
+      <c r="E993" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B994" s="1">
+        <f t="shared" si="16"/>
+        <v>0.56981481481481477</v>
+      </c>
+      <c r="C994" t="s">
+        <v>155</v>
+      </c>
+      <c r="D994" t="s">
+        <v>92</v>
+      </c>
+      <c r="E994" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B995" s="1">
+        <f t="shared" si="16"/>
+        <v>0.62953703703703712</v>
+      </c>
+      <c r="C995" t="s">
+        <v>156</v>
+      </c>
+      <c r="D995" t="s">
+        <v>92</v>
+      </c>
+      <c r="E995" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>89</v>
+      </c>
+      <c r="B996" s="1">
+        <f t="shared" si="16"/>
+        <v>0.63093750000000004</v>
+      </c>
+      <c r="C996" t="s">
+        <v>156</v>
+      </c>
+      <c r="D996" t="s">
+        <v>92</v>
+      </c>
+      <c r="E996" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>88</v>
+      </c>
+      <c r="B997" s="1">
+        <f t="shared" si="16"/>
+        <v>0.63538194444444451</v>
+      </c>
+      <c r="C997" t="s">
+        <v>156</v>
+      </c>
+      <c r="D997" t="s">
+        <v>92</v>
+      </c>
+      <c r="E997" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>88</v>
+      </c>
+      <c r="B998" s="1">
+        <f t="shared" si="16"/>
+        <v>0.64725694444444448</v>
+      </c>
+      <c r="C998" t="s">
+        <v>157</v>
+      </c>
+      <c r="D998" t="s">
+        <v>92</v>
+      </c>
+      <c r="E998" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>89</v>
+      </c>
+      <c r="B999" s="1">
+        <f t="shared" si="16"/>
+        <v>0.65211805555555558</v>
+      </c>
+      <c r="C999" t="s">
+        <v>157</v>
+      </c>
+      <c r="D999" t="s">
+        <v>92</v>
+      </c>
+      <c r="E999" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1000" s="1">
+        <f t="shared" si="16"/>
+        <v>0.65314814814814814</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1001" s="1">
+        <f t="shared" si="16"/>
+        <v>0.71287037037037049</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1002" s="1">
+        <f t="shared" si="16"/>
+        <v>0.71427083333333341</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1003" s="1">
+        <f t="shared" si="16"/>
+        <v>0.71871527777777788</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1004" s="1">
+        <f t="shared" si="16"/>
+        <v>0.73059027777777785</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1005" s="1">
+        <f t="shared" si="16"/>
+        <v>0.73545138888888895</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1006" s="1">
+        <f t="shared" si="16"/>
+        <v>0.73648148148148151</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1007" s="1">
+        <f t="shared" si="16"/>
+        <v>0.79620370370370386</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1008" s="1">
+        <f t="shared" si="16"/>
+        <v>0.79760416666666678</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1009" s="1">
+        <f t="shared" si="16"/>
+        <v>0.80204861111111125</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1010" s="1">
+        <f t="shared" si="16"/>
+        <v>0.81392361111111122</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1011" s="1">
+        <f t="shared" si="16"/>
+        <v>0.81878472222222232</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1012" s="1">
+        <f t="shared" si="16"/>
+        <v>0.81981481481481489</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1013" s="1">
+        <f t="shared" si="16"/>
+        <v>0.87953703703703723</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1014" s="1">
+        <f t="shared" si="16"/>
+        <v>0.88093750000000015</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1015" s="1">
+        <f t="shared" si="16"/>
+        <v>0.88538194444444462</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1016" s="1">
+        <f t="shared" si="16"/>
+        <v>0.89725694444444459</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1017" s="1">
+        <f t="shared" si="16"/>
+        <v>0.90211805555555569</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1018" s="1">
+        <f t="shared" si="16"/>
+        <v>0.90314814814814826</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1019" s="1">
+        <f t="shared" si="16"/>
+        <v>0.9628703703703706</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1020" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96427083333333352</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1021" s="1">
+        <f t="shared" si="16"/>
+        <v>0.96871527777777799</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dades/1S3.xlsx
+++ b/dades/1S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC6E2E8-D11D-4881-A754-17B505F1EA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5012F-2154-4392-8A35-CB3E4EBB53EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="182">
   <si>
     <t>departure</t>
   </si>
@@ -532,6 +532,57 @@
   <si>
     <t>R10A.072</t>
   </si>
+  <si>
+    <t>R9B.001</t>
+  </si>
+  <si>
+    <t>R9B.002</t>
+  </si>
+  <si>
+    <t>R9B</t>
+  </si>
+  <si>
+    <t>R9B.003</t>
+  </si>
+  <si>
+    <t>R9B.004</t>
+  </si>
+  <si>
+    <t>R9B.005</t>
+  </si>
+  <si>
+    <t>R9B.006</t>
+  </si>
+  <si>
+    <t>R9B.007</t>
+  </si>
+  <si>
+    <t>R9B.008</t>
+  </si>
+  <si>
+    <t>R9B.009</t>
+  </si>
+  <si>
+    <t>R9B.010</t>
+  </si>
+  <si>
+    <t>R9B.011</t>
+  </si>
+  <si>
+    <t>R9B.012</t>
+  </si>
+  <si>
+    <t>R9B.013</t>
+  </si>
+  <si>
+    <t>R9B.014</t>
+  </si>
+  <si>
+    <t>R9B.015</t>
+  </si>
+  <si>
+    <t>R9B.016</t>
+  </si>
 </sst>
 </file>
 
@@ -865,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1021"/>
+  <dimension ref="A1:E1149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A875" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C896" sqref="C896:C898"/>
+    <sheetView tabSelected="1" topLeftCell="A1108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1141" sqref="E1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19045,6 +19096,2294 @@
         <v>88</v>
       </c>
     </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>0.25968750000000002</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>0.26152777777777775</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1024" s="1">
+        <v>0.26569444444444446</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1025" s="1">
+        <v>0.27133101851851854</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1026" s="1">
+        <v>0.27328703703703705</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1027" s="1">
+        <v>0.2776851851851852</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1028" s="1">
+        <v>0.28253472222222226</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1029" s="1">
+        <v>0.28356481481481483</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1030" s="1">
+        <v>0.31659722222222225</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1031" s="1">
+        <v>0.31799768518518517</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1032" s="1">
+        <v>0.32271990740740741</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1033" s="1">
+        <v>0.32704861111111111</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1034" s="1">
+        <v>0.3289583333333333</v>
+      </c>
+      <c r="C1034" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1035" s="1">
+        <v>0.33457175925925925</v>
+      </c>
+      <c r="C1035" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1036" s="1">
+        <v>0.3387384259259259</v>
+      </c>
+      <c r="C1036" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1037" s="1">
+        <v>0.34031250000000002</v>
+      </c>
+      <c r="C1037" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1038" s="1">
+        <f>B1022+(2/24)</f>
+        <v>0.34302083333333333</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1039" s="1">
+        <f t="shared" ref="B1039:B1102" si="17">B1023+(2/24)</f>
+        <v>0.34486111111111106</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1040" s="1">
+        <f t="shared" si="17"/>
+        <v>0.34902777777777777</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1041" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35466435185185186</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1042" s="1">
+        <f t="shared" si="17"/>
+        <v>0.35662037037037037</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1043" s="1">
+        <f t="shared" si="17"/>
+        <v>0.36101851851851852</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1044" s="1">
+        <f t="shared" si="17"/>
+        <v>0.36586805555555557</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1045" s="1">
+        <f t="shared" si="17"/>
+        <v>0.36689814814814814</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1046" s="1">
+        <f t="shared" si="17"/>
+        <v>0.39993055555555557</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1047" s="1">
+        <f t="shared" si="17"/>
+        <v>0.40133101851851849</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1048" s="1">
+        <f t="shared" si="17"/>
+        <v>0.40605324074074073</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1049" s="1">
+        <f t="shared" si="17"/>
+        <v>0.41038194444444442</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1050" s="1">
+        <f t="shared" si="17"/>
+        <v>0.41229166666666661</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1051" s="1">
+        <f t="shared" si="17"/>
+        <v>0.41790509259259256</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1052" s="1">
+        <f t="shared" si="17"/>
+        <v>0.42207175925925922</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1053" s="1">
+        <f t="shared" si="17"/>
+        <v>0.42364583333333333</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1054" s="1">
+        <f t="shared" si="17"/>
+        <v>0.42635416666666665</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1055" s="1">
+        <f t="shared" si="17"/>
+        <v>0.42819444444444438</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1056" s="1">
+        <f t="shared" si="17"/>
+        <v>0.43236111111111108</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1057" s="1">
+        <f t="shared" si="17"/>
+        <v>0.43799768518518517</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1058" s="1">
+        <f t="shared" si="17"/>
+        <v>0.43995370370370368</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1059" s="1">
+        <f t="shared" si="17"/>
+        <v>0.44435185185185183</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1060" s="1">
+        <f t="shared" si="17"/>
+        <v>0.44920138888888889</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1061" s="1">
+        <f t="shared" si="17"/>
+        <v>0.45023148148148145</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1062" s="1">
+        <f t="shared" si="17"/>
+        <v>0.48326388888888888</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1063" s="1">
+        <f t="shared" si="17"/>
+        <v>0.4846643518518518</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1064" s="1">
+        <f t="shared" si="17"/>
+        <v>0.48938657407407404</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1065" s="1">
+        <f t="shared" si="17"/>
+        <v>0.49371527777777774</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1066" s="1">
+        <f t="shared" si="17"/>
+        <v>0.49562499999999993</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1067" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50123842592592593</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1068" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50540509259259259</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1069" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50697916666666665</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1070" s="1">
+        <f t="shared" si="17"/>
+        <v>0.50968749999999996</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1071" s="1">
+        <f t="shared" si="17"/>
+        <v>0.51152777777777769</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1072" s="1">
+        <f t="shared" si="17"/>
+        <v>0.51569444444444446</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1073" s="1">
+        <f t="shared" si="17"/>
+        <v>0.52133101851851849</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1074" s="1">
+        <f t="shared" si="17"/>
+        <v>0.52328703703703705</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1075" s="1">
+        <f t="shared" si="17"/>
+        <v>0.52768518518518515</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1076" s="1">
+        <f t="shared" si="17"/>
+        <v>0.5325347222222222</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1077" s="1">
+        <f t="shared" si="17"/>
+        <v>0.53356481481481477</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1078" s="1">
+        <f t="shared" si="17"/>
+        <v>0.5665972222222222</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1079" s="1">
+        <f t="shared" si="17"/>
+        <v>0.56799768518518512</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1080" s="1">
+        <f t="shared" si="17"/>
+        <v>0.57271990740740741</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1081" s="1">
+        <f t="shared" si="17"/>
+        <v>0.57704861111111105</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1082" s="1">
+        <f t="shared" si="17"/>
+        <v>0.57895833333333324</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1083" s="1">
+        <f t="shared" si="17"/>
+        <v>0.5845717592592593</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1084" s="1">
+        <f t="shared" si="17"/>
+        <v>0.58873842592592596</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1085" s="1">
+        <f t="shared" si="17"/>
+        <v>0.59031250000000002</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1086" s="1">
+        <f t="shared" si="17"/>
+        <v>0.59302083333333333</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1087" s="1">
+        <f t="shared" si="17"/>
+        <v>0.59486111111111106</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1088" s="1">
+        <f t="shared" si="17"/>
+        <v>0.59902777777777783</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1089" s="1">
+        <f t="shared" si="17"/>
+        <v>0.60466435185185186</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1090" s="1">
+        <f t="shared" si="17"/>
+        <v>0.60662037037037042</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1091" s="1">
+        <f t="shared" si="17"/>
+        <v>0.61101851851851852</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1092" s="1">
+        <f t="shared" si="17"/>
+        <v>0.61586805555555557</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1093" s="1">
+        <f t="shared" si="17"/>
+        <v>0.61689814814814814</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1094" s="1">
+        <f t="shared" si="17"/>
+        <v>0.64993055555555557</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1095" s="1">
+        <f t="shared" si="17"/>
+        <v>0.65133101851851849</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1096" s="1">
+        <f t="shared" si="17"/>
+        <v>0.65605324074074078</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1097" s="1">
+        <f t="shared" si="17"/>
+        <v>0.66038194444444442</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1098" s="1">
+        <f t="shared" si="17"/>
+        <v>0.66229166666666661</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1099" s="1">
+        <f t="shared" si="17"/>
+        <v>0.66790509259259268</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1100" s="1">
+        <f t="shared" si="17"/>
+        <v>0.67207175925925933</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1101" s="1">
+        <f t="shared" si="17"/>
+        <v>0.67364583333333339</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1102" s="1">
+        <f t="shared" si="17"/>
+        <v>0.6763541666666667</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1103" s="1">
+        <f t="shared" ref="B1103:B1149" si="18">B1087+(2/24)</f>
+        <v>0.67819444444444443</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1104" s="1">
+        <f t="shared" si="18"/>
+        <v>0.6823611111111112</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1105" s="1">
+        <f t="shared" si="18"/>
+        <v>0.68799768518518523</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1106" s="1">
+        <f t="shared" si="18"/>
+        <v>0.68995370370370379</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1107" s="1">
+        <f t="shared" si="18"/>
+        <v>0.69435185185185189</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1108" s="1">
+        <f t="shared" si="18"/>
+        <v>0.69920138888888894</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1109" s="1">
+        <f t="shared" si="18"/>
+        <v>0.70023148148148151</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1110" s="1">
+        <f t="shared" si="18"/>
+        <v>0.73326388888888894</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1111" s="1">
+        <f t="shared" si="18"/>
+        <v>0.73466435185185186</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1112" s="1">
+        <f t="shared" si="18"/>
+        <v>0.73938657407407415</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1113" s="1">
+        <f t="shared" si="18"/>
+        <v>0.74371527777777779</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1114" s="1">
+        <f t="shared" si="18"/>
+        <v>0.74562499999999998</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1115" s="1">
+        <f t="shared" si="18"/>
+        <v>0.75123842592592605</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1116" s="1">
+        <f t="shared" si="18"/>
+        <v>0.7554050925925927</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1117" s="1">
+        <f t="shared" si="18"/>
+        <v>0.75697916666666676</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1118" s="1">
+        <f t="shared" si="18"/>
+        <v>0.75968750000000007</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1119" s="1">
+        <f t="shared" si="18"/>
+        <v>0.7615277777777778</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1120" s="1">
+        <f t="shared" si="18"/>
+        <v>0.76569444444444457</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1121" s="1">
+        <f t="shared" si="18"/>
+        <v>0.7713310185185186</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1122" s="1">
+        <f t="shared" si="18"/>
+        <v>0.77328703703703716</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1123" s="1">
+        <f t="shared" si="18"/>
+        <v>0.77768518518518526</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1124" s="1">
+        <f t="shared" si="18"/>
+        <v>0.78253472222222231</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1125" s="1">
+        <f t="shared" si="18"/>
+        <v>0.78356481481481488</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1126" s="1">
+        <f t="shared" si="18"/>
+        <v>0.81659722222222231</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1127" s="1">
+        <f t="shared" si="18"/>
+        <v>0.81799768518518523</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1128" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82271990740740752</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1129" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82704861111111116</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1130" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82895833333333335</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1131" s="1">
+        <f t="shared" si="18"/>
+        <v>0.83457175925925942</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1132" s="1">
+        <f t="shared" si="18"/>
+        <v>0.83873842592592607</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1133" s="1">
+        <f t="shared" si="18"/>
+        <v>0.84031250000000013</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1134" s="1">
+        <f t="shared" si="18"/>
+        <v>0.84302083333333344</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1135" s="1">
+        <f t="shared" si="18"/>
+        <v>0.84486111111111117</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1136" s="1">
+        <f t="shared" si="18"/>
+        <v>0.84902777777777794</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1137" s="1">
+        <f t="shared" si="18"/>
+        <v>0.85466435185185197</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1138" s="1">
+        <f t="shared" si="18"/>
+        <v>0.85662037037037053</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1139" s="1">
+        <f t="shared" si="18"/>
+        <v>0.86101851851851863</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1140" s="1">
+        <f t="shared" si="18"/>
+        <v>0.86586805555555568</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1141" s="1">
+        <f t="shared" si="18"/>
+        <v>0.86689814814814825</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1142" s="1">
+        <f t="shared" si="18"/>
+        <v>0.89993055555555568</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1143" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9013310185185186</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1144" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9060532407407409</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1145" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91038194444444454</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1146" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91229166666666672</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1147" s="1">
+        <f t="shared" si="18"/>
+        <v>0.91790509259259279</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1148" s="1">
+        <f t="shared" si="18"/>
+        <v>0.92207175925925944</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1149" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9236458333333335</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
